--- a/docs/mcode/shr-core-Dosage-extension.xlsx
+++ b/docs/mcode/shr-core-Dosage-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$23</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="99">
   <si>
     <t>Path</t>
   </si>
@@ -284,12 +284,6 @@
   </si>
   <si>
     <t>The way a substance enters an organism after contact, particularly, the route of drug administration.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-RouteIntoBody-extension"/&gt;</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
     <t>dosagemethod</t>
@@ -481,7 +475,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1893,9 +1887,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>36</v>
       </c>
@@ -1916,13 +1912,11 @@
         <v>36</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="K15" s="2"/>
       <c r="L15" t="s" s="2">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1973,7 +1967,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2001,7 +1995,7 @@
         <v>37</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -2013,13 +2007,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2070,13 +2064,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2087,7 +2081,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2095,10 +2089,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>36</v>
@@ -2110,13 +2104,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2125,7 +2119,7 @@
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>36</v>
@@ -2167,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>36</v>
@@ -2184,7 +2178,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2207,13 +2201,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2222,7 +2216,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>36</v>
@@ -2240,11 +2234,13 @@
         <v>36</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>36</v>
@@ -2262,10 +2258,10 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>41</v>
@@ -2279,17 +2275,15 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>88</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>41</v>
@@ -2304,11 +2298,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="L19" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2335,13 +2331,11 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>36</v>
@@ -2359,7 +2353,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2376,9 +2370,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>36</v>
       </c>
@@ -2399,13 +2395,11 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>44</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="K20" s="2"/>
       <c r="L20" t="s" s="2">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2456,7 +2450,7 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
@@ -2473,9 +2467,11 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>94</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>36</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>37</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>36</v>
@@ -2496,13 +2492,11 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="K21" s="2"/>
       <c r="L21" t="s" s="2">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2553,13 +2547,13 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>36</v>
@@ -2570,7 +2564,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2608,7 +2602,7 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>36</v>
@@ -2667,7 +2661,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2675,10 +2669,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>36</v>
@@ -2690,7 +2684,7 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>78</v>
@@ -2723,11 +2717,13 @@
         <v>36</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y23" t="s" s="2">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>36</v>
@@ -2760,396 +2756,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AI27">
+  <autoFilter ref="A1:AI23">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3159,7 +2767,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI26">
+  <conditionalFormatting sqref="A2:AI22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
